--- a/datenRF4/SFU/i = 24,42 - Abtriebswelle 14 - Geber AV Y2/L1_24,42_14_AVY2.xlsx
+++ b/datenRF4/SFU/i = 24,42 - Abtriebswelle 14 - Geber AV Y2/L1_24,42_14_AVY2.xlsx
@@ -1,23 +1,17 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23929"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="6" rupBuild="4507"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/79280b356d20d493/Arbeit/2_Arbeitsergebnisse/2_Strukturierung_Labeling der Daten im Assistenzsystem/Reifegradstufen/Reifegradstufen Synchron ^M Fußgehäuse/i = 24^J42 - Abtriebswelle 14 - Geber AV Y2/"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="30" documentId="13_ncr:1_{A56C8E1D-3983-4444-8D9F-97A94BCD5E3A}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{AD1735D5-37DE-4312-B04B-FD4817E77C7F}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="19420" windowHeight="11020"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
-  <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+  <calcPr calcId="125725"/>
+  <extLst xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main">
+    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
   </extLst>
@@ -434,11 +428,11 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.0"/>
   </numFmts>
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="4">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -623,7 +617,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="56">
+  <cellXfs count="57">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
@@ -678,9 +672,6 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -688,9 +679,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -725,6 +713,15 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -786,7 +783,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin typeface="Calibri Light"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="Yu Gothic Light"/>
@@ -821,7 +818,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="Yu Gothic"/>
@@ -998,82 +995,82 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:T66"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <pane xSplit="8" ySplit="3" topLeftCell="I4" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
-      <selection pane="bottomRight" activeCell="F4" sqref="F4"/>
+      <selection pane="bottomRight" activeCell="C39" sqref="C39"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.1796875" defaultRowHeight="14.5"/>
   <cols>
-    <col min="1" max="4" width="20.7109375" customWidth="1"/>
-    <col min="5" max="5" width="32.28515625" customWidth="1"/>
-    <col min="6" max="7" width="20.7109375" customWidth="1"/>
+    <col min="1" max="4" width="20.7265625" customWidth="1"/>
+    <col min="5" max="5" width="32.26953125" customWidth="1"/>
+    <col min="6" max="7" width="20.7265625" customWidth="1"/>
     <col min="9" max="9" width="41" customWidth="1"/>
-    <col min="10" max="10" width="11.28515625" customWidth="1"/>
-    <col min="11" max="11" width="24.140625" customWidth="1"/>
-    <col min="12" max="12" width="63.5703125" customWidth="1"/>
-    <col min="13" max="13" width="14.7109375" customWidth="1"/>
-    <col min="14" max="14" width="15.85546875" customWidth="1"/>
-    <col min="15" max="15" width="18.5703125" customWidth="1"/>
-    <col min="16" max="16" width="17.140625" customWidth="1"/>
-    <col min="17" max="17" width="19.5703125" customWidth="1"/>
-    <col min="18" max="18" width="23.7109375" customWidth="1"/>
-    <col min="19" max="19" width="15.28515625" customWidth="1"/>
+    <col min="10" max="10" width="11.26953125" customWidth="1"/>
+    <col min="11" max="11" width="24.1796875" customWidth="1"/>
+    <col min="12" max="12" width="63.54296875" customWidth="1"/>
+    <col min="13" max="13" width="14.7265625" customWidth="1"/>
+    <col min="14" max="14" width="15.81640625" customWidth="1"/>
+    <col min="15" max="15" width="18.54296875" customWidth="1"/>
+    <col min="16" max="16" width="17.1796875" customWidth="1"/>
+    <col min="17" max="17" width="19.54296875" customWidth="1"/>
+    <col min="18" max="18" width="23.7265625" customWidth="1"/>
+    <col min="19" max="19" width="15.26953125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:20" ht="21" x14ac:dyDescent="0.35">
-      <c r="A1" s="53" t="s">
+    <row r="1" spans="1:20" ht="21">
+      <c r="A1" s="51" t="s">
         <v>107</v>
       </c>
-      <c r="B1" s="54"/>
-      <c r="C1" s="54"/>
-      <c r="D1" s="54"/>
-      <c r="E1" s="54"/>
-      <c r="F1" s="54"/>
-      <c r="G1" s="55"/>
-      <c r="H1" s="51" t="s">
+      <c r="B1" s="52"/>
+      <c r="C1" s="52"/>
+      <c r="D1" s="52"/>
+      <c r="E1" s="52"/>
+      <c r="F1" s="52"/>
+      <c r="G1" s="53"/>
+      <c r="H1" s="49" t="s">
         <v>106</v>
       </c>
-      <c r="I1" s="52"/>
-      <c r="J1" s="52"/>
-      <c r="K1" s="52"/>
-      <c r="L1" s="52"/>
-      <c r="M1" s="46" t="s">
+      <c r="I1" s="50"/>
+      <c r="J1" s="50"/>
+      <c r="K1" s="50"/>
+      <c r="L1" s="50"/>
+      <c r="M1" s="44" t="s">
         <v>108</v>
       </c>
-      <c r="N1" s="46"/>
-      <c r="O1" s="46"/>
-      <c r="P1" s="46"/>
-      <c r="Q1" s="46"/>
-      <c r="R1" s="46"/>
-      <c r="S1" s="46"/>
-      <c r="T1" s="47"/>
-    </row>
-    <row r="2" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A2" s="48" t="s">
+      <c r="N1" s="44"/>
+      <c r="O1" s="44"/>
+      <c r="P1" s="44"/>
+      <c r="Q1" s="44"/>
+      <c r="R1" s="44"/>
+      <c r="S1" s="44"/>
+      <c r="T1" s="45"/>
+    </row>
+    <row r="2" spans="1:20">
+      <c r="A2" s="46" t="s">
         <v>57</v>
       </c>
-      <c r="B2" s="49"/>
-      <c r="C2" s="50" t="s">
+      <c r="B2" s="47"/>
+      <c r="C2" s="48" t="s">
         <v>92</v>
       </c>
-      <c r="D2" s="50"/>
-      <c r="E2" s="49" t="s">
+      <c r="D2" s="48"/>
+      <c r="E2" s="47" t="s">
         <v>58</v>
       </c>
-      <c r="F2" s="49"/>
+      <c r="F2" s="47"/>
       <c r="G2" s="27"/>
       <c r="H2" s="5"/>
       <c r="I2" s="14"/>
@@ -1089,7 +1086,7 @@
       <c r="S2" s="15"/>
       <c r="T2" s="6"/>
     </row>
-    <row r="3" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:20" ht="15" thickBot="1">
       <c r="A3" s="9" t="s">
         <v>59</v>
       </c>
@@ -1151,7 +1148,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="4" spans="1:20" ht="45" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:20" ht="43.5">
       <c r="A4" s="16"/>
       <c r="B4" s="33"/>
       <c r="F4" s="34"/>
@@ -1182,7 +1179,7 @@
       </c>
       <c r="T4" s="17"/>
     </row>
-    <row r="5" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:20">
       <c r="A5" s="16"/>
       <c r="G5" s="17"/>
       <c r="H5" s="16">
@@ -1207,7 +1204,7 @@
       <c r="S5" s="1"/>
       <c r="T5" s="19"/>
     </row>
-    <row r="6" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:20" ht="15" thickBot="1">
       <c r="A6" s="16"/>
       <c r="G6" s="17"/>
       <c r="H6" s="16">
@@ -1232,7 +1229,7 @@
       <c r="S6" s="1"/>
       <c r="T6" s="17"/>
     </row>
-    <row r="7" spans="1:20" ht="30" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:20" ht="29">
       <c r="A7" s="28">
         <v>1</v>
       </c>
@@ -1284,7 +1281,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:20" ht="15" thickBot="1">
       <c r="A8" s="3">
         <v>2</v>
       </c>
@@ -1318,11 +1315,13 @@
       <c r="S8" s="1"/>
       <c r="T8" s="17"/>
     </row>
-    <row r="9" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:20" ht="15" thickBot="1">
       <c r="A9" s="3">
         <v>1</v>
       </c>
-      <c r="B9" s="38"/>
+      <c r="B9" s="55">
+        <v>3</v>
+      </c>
       <c r="C9" s="4">
         <v>1</v>
       </c>
@@ -1352,10 +1351,10 @@
       <c r="S9" s="1"/>
       <c r="T9" s="17"/>
     </row>
-    <row r="10" spans="1:20" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:20" ht="44" thickBot="1">
       <c r="A10" s="16"/>
       <c r="B10" s="33"/>
-      <c r="E10" s="39"/>
+      <c r="E10" s="38"/>
       <c r="G10" s="17"/>
       <c r="H10" s="16">
         <v>3</v>
@@ -1379,7 +1378,7 @@
       <c r="S10" s="1"/>
       <c r="T10" s="17"/>
     </row>
-    <row r="11" spans="1:20" ht="45" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:20" ht="43.5">
       <c r="A11" s="28">
         <v>1</v>
       </c>
@@ -1431,7 +1430,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:20" ht="15" thickBot="1">
       <c r="A12" s="3">
         <v>2</v>
       </c>
@@ -1465,18 +1464,20 @@
       <c r="S12" s="1"/>
       <c r="T12" s="17"/>
     </row>
-    <row r="13" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:20">
       <c r="A13" s="16">
         <v>1</v>
       </c>
-      <c r="B13" s="33"/>
+      <c r="B13" s="54">
+        <v>3</v>
+      </c>
       <c r="C13">
         <v>1</v>
       </c>
       <c r="D13" t="s">
         <v>56</v>
       </c>
-      <c r="E13" s="39" t="s">
+      <c r="E13" s="38" t="s">
         <v>67</v>
       </c>
       <c r="F13" t="s">
@@ -1499,11 +1500,13 @@
       <c r="S13" s="1"/>
       <c r="T13" s="17"/>
     </row>
-    <row r="14" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:20" ht="15" thickBot="1">
       <c r="A14" s="3">
         <v>2</v>
       </c>
-      <c r="B14" s="4"/>
+      <c r="B14" s="55">
+        <v>3</v>
+      </c>
       <c r="C14" s="4">
         <v>1</v>
       </c>
@@ -1533,7 +1536,7 @@
       <c r="S14" s="1"/>
       <c r="T14" s="17"/>
     </row>
-    <row r="15" spans="1:20" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:20" ht="29.5" thickBot="1">
       <c r="A15" s="16"/>
       <c r="G15" s="17"/>
       <c r="H15" s="16">
@@ -1558,7 +1561,7 @@
       <c r="S15" s="1"/>
       <c r="T15" s="17"/>
     </row>
-    <row r="16" spans="1:20" ht="30" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:20" ht="29">
       <c r="A16" s="28">
         <v>1</v>
       </c>
@@ -1610,7 +1613,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:20" ht="15" thickBot="1">
       <c r="A17" s="3">
         <v>2</v>
       </c>
@@ -1644,18 +1647,20 @@
       <c r="S17" s="1"/>
       <c r="T17" s="17"/>
     </row>
-    <row r="18" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:20">
       <c r="A18" s="16">
         <v>1</v>
       </c>
-      <c r="B18" s="33"/>
+      <c r="B18" s="54">
+        <v>3</v>
+      </c>
       <c r="C18">
         <v>1</v>
       </c>
       <c r="D18" t="s">
         <v>56</v>
       </c>
-      <c r="E18" s="39" t="s">
+      <c r="E18" s="38" t="s">
         <v>67</v>
       </c>
       <c r="F18" t="s">
@@ -1678,9 +1683,12 @@
       <c r="S18" s="1"/>
       <c r="T18" s="17"/>
     </row>
-    <row r="19" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:20">
       <c r="A19" s="16">
         <v>2</v>
+      </c>
+      <c r="B19" s="54">
+        <v>3</v>
       </c>
       <c r="C19">
         <v>1</v>
@@ -1711,11 +1719,13 @@
       <c r="S19" s="1"/>
       <c r="T19" s="17"/>
     </row>
-    <row r="20" spans="1:20" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:20" ht="29.5" thickBot="1">
       <c r="A20" s="3">
         <v>3</v>
       </c>
-      <c r="B20" s="35"/>
+      <c r="B20" s="55">
+        <v>3</v>
+      </c>
       <c r="C20" s="4">
         <v>8</v>
       </c>
@@ -1745,7 +1755,7 @@
       <c r="S20" s="1"/>
       <c r="T20" s="17"/>
     </row>
-    <row r="21" spans="1:20" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:20" ht="29.5" thickBot="1">
       <c r="A21" s="16"/>
       <c r="G21" s="17"/>
       <c r="H21" s="16">
@@ -1770,7 +1780,7 @@
       <c r="S21" s="1"/>
       <c r="T21" s="17"/>
     </row>
-    <row r="22" spans="1:20" ht="30" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:20" ht="29">
       <c r="A22" s="28">
         <v>1</v>
       </c>
@@ -1822,7 +1832,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="23" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:20" ht="15" thickBot="1">
       <c r="A23" s="3">
         <v>2</v>
       </c>
@@ -1856,18 +1866,20 @@
       <c r="S23" s="1"/>
       <c r="T23" s="17"/>
     </row>
-    <row r="24" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:20">
       <c r="A24" s="16">
         <v>1</v>
       </c>
-      <c r="B24" s="33"/>
+      <c r="B24" s="54">
+        <v>3</v>
+      </c>
       <c r="C24">
         <v>1</v>
       </c>
       <c r="D24" t="s">
         <v>56</v>
       </c>
-      <c r="E24" s="39" t="s">
+      <c r="E24" s="38" t="s">
         <v>67</v>
       </c>
       <c r="F24" t="s">
@@ -1890,9 +1902,12 @@
       <c r="S24" s="1"/>
       <c r="T24" s="17"/>
     </row>
-    <row r="25" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:20">
       <c r="A25" s="16">
         <v>2</v>
+      </c>
+      <c r="B25" s="54">
+        <v>3</v>
       </c>
       <c r="C25">
         <v>1</v>
@@ -1923,11 +1938,13 @@
       <c r="S25" s="1"/>
       <c r="T25" s="17"/>
     </row>
-    <row r="26" spans="1:20" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:20" ht="29.5" thickBot="1">
       <c r="A26" s="3">
         <v>3</v>
       </c>
-      <c r="B26" s="35"/>
+      <c r="B26" s="55">
+        <v>3</v>
+      </c>
       <c r="C26" s="4">
         <v>8</v>
       </c>
@@ -1957,7 +1974,7 @@
       <c r="S26" s="1"/>
       <c r="T26" s="17"/>
     </row>
-    <row r="27" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:20" ht="15" thickBot="1">
       <c r="A27" s="16"/>
       <c r="G27" s="17"/>
       <c r="H27" s="16">
@@ -1982,7 +1999,7 @@
       <c r="S27" s="1"/>
       <c r="T27" s="17"/>
     </row>
-    <row r="28" spans="1:20" ht="30" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:20" ht="29">
       <c r="A28" s="28">
         <v>1</v>
       </c>
@@ -2036,7 +2053,7 @@
       </c>
       <c r="T28" s="17"/>
     </row>
-    <row r="29" spans="1:20" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:20" ht="29.5" thickBot="1">
       <c r="A29" s="3">
         <v>2</v>
       </c>
@@ -2076,18 +2093,20 @@
       </c>
       <c r="T29" s="17"/>
     </row>
-    <row r="30" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:20">
       <c r="A30" s="16">
         <v>1</v>
       </c>
-      <c r="B30" s="33"/>
+      <c r="B30" s="54">
+        <v>3</v>
+      </c>
       <c r="C30">
         <v>1</v>
       </c>
       <c r="D30" t="s">
         <v>56</v>
       </c>
-      <c r="E30" s="39" t="s">
+      <c r="E30" s="38" t="s">
         <v>67</v>
       </c>
       <c r="F30" t="s">
@@ -2110,9 +2129,12 @@
       <c r="S30" s="1"/>
       <c r="T30" s="17"/>
     </row>
-    <row r="31" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:20">
       <c r="A31" s="16">
         <v>2</v>
+      </c>
+      <c r="B31" s="54">
+        <v>3</v>
       </c>
       <c r="C31">
         <v>1</v>
@@ -2143,11 +2165,13 @@
       <c r="S31" s="1"/>
       <c r="T31" s="17"/>
     </row>
-    <row r="32" spans="1:20" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:20" ht="29.5" thickBot="1">
       <c r="A32" s="3">
         <v>3</v>
       </c>
-      <c r="B32" s="35"/>
+      <c r="B32" s="55">
+        <v>3</v>
+      </c>
       <c r="C32" s="4">
         <v>8</v>
       </c>
@@ -2177,7 +2201,7 @@
       <c r="S32" s="1"/>
       <c r="T32" s="17"/>
     </row>
-    <row r="33" spans="1:20" ht="45" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:20" ht="43.5">
       <c r="A33" s="16"/>
       <c r="G33" s="17"/>
       <c r="H33" s="16">
@@ -2202,7 +2226,7 @@
       <c r="S33" s="1"/>
       <c r="T33" s="17"/>
     </row>
-    <row r="34" spans="1:20" ht="30" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:20" ht="29">
       <c r="A34" s="16"/>
       <c r="G34" s="17"/>
       <c r="H34" s="16">
@@ -2227,7 +2251,7 @@
       <c r="S34" s="1"/>
       <c r="T34" s="17"/>
     </row>
-    <row r="35" spans="1:20" ht="30" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:20" ht="29">
       <c r="A35" s="16"/>
       <c r="G35" s="17"/>
       <c r="H35" s="16">
@@ -2252,7 +2276,7 @@
       <c r="S35" s="1"/>
       <c r="T35" s="17"/>
     </row>
-    <row r="36" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:20">
       <c r="A36" s="16"/>
       <c r="G36" s="17"/>
       <c r="H36" s="16">
@@ -2277,7 +2301,7 @@
       <c r="S36" s="1"/>
       <c r="T36" s="17"/>
     </row>
-    <row r="37" spans="1:20" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:20" ht="44" thickBot="1">
       <c r="A37" s="16"/>
       <c r="B37" s="33"/>
       <c r="F37" s="34"/>
@@ -2304,7 +2328,7 @@
       <c r="S37" s="1"/>
       <c r="T37" s="17"/>
     </row>
-    <row r="38" spans="1:20" ht="45" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:20" ht="43.5">
       <c r="A38" s="28">
         <v>1</v>
       </c>
@@ -2356,11 +2380,11 @@
         <v>1</v>
       </c>
     </row>
-    <row r="39" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:20">
       <c r="A39" s="16">
         <v>2</v>
       </c>
-      <c r="B39" s="40">
+      <c r="B39" s="39">
         <v>2</v>
       </c>
       <c r="C39">
@@ -2390,11 +2414,11 @@
       <c r="S39" s="1"/>
       <c r="T39" s="17"/>
     </row>
-    <row r="40" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:20" ht="15" thickBot="1">
       <c r="A40" s="16">
         <v>3</v>
       </c>
-      <c r="B40" s="40">
+      <c r="B40" s="39">
         <v>2</v>
       </c>
       <c r="C40">
@@ -2424,24 +2448,26 @@
       <c r="S40" s="1"/>
       <c r="T40" s="17"/>
     </row>
-    <row r="41" spans="1:20" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A41" s="41">
-        <v>1</v>
-      </c>
-      <c r="B41" s="42"/>
-      <c r="C41" s="43">
-        <v>1</v>
-      </c>
-      <c r="D41" s="43" t="s">
-        <v>56</v>
-      </c>
-      <c r="E41" s="44" t="s">
+    <row r="41" spans="1:20" ht="29.5" thickBot="1">
+      <c r="A41" s="40">
+        <v>1</v>
+      </c>
+      <c r="B41" s="56">
+        <v>3</v>
+      </c>
+      <c r="C41" s="41">
+        <v>1</v>
+      </c>
+      <c r="D41" s="41" t="s">
+        <v>56</v>
+      </c>
+      <c r="E41" s="42" t="s">
         <v>90</v>
       </c>
-      <c r="F41" s="43" t="s">
+      <c r="F41" s="41" t="s">
         <v>91</v>
       </c>
-      <c r="G41" s="45">
+      <c r="G41" s="43">
         <v>11111</v>
       </c>
       <c r="H41" s="16"/>
@@ -2458,7 +2484,7 @@
       <c r="S41" s="1"/>
       <c r="T41" s="17"/>
     </row>
-    <row r="42" spans="1:20" ht="45" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:20" ht="43.5">
       <c r="A42" s="16"/>
       <c r="G42" s="17"/>
       <c r="H42" s="16">
@@ -2483,7 +2509,7 @@
       <c r="S42" s="1"/>
       <c r="T42" s="17"/>
     </row>
-    <row r="43" spans="1:20" ht="45" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:20" ht="43.5">
       <c r="A43" s="16"/>
       <c r="G43" s="17"/>
       <c r="H43" s="16">
@@ -2508,7 +2534,7 @@
       <c r="S43" s="1"/>
       <c r="T43" s="17"/>
     </row>
-    <row r="44" spans="1:20" ht="45" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:20" ht="43.5">
       <c r="A44" s="16"/>
       <c r="G44" s="17"/>
       <c r="H44" s="16">
@@ -2533,7 +2559,7 @@
       <c r="S44" s="1"/>
       <c r="T44" s="17"/>
     </row>
-    <row r="45" spans="1:20" ht="45" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:20" ht="43.5">
       <c r="A45" s="16"/>
       <c r="G45" s="17"/>
       <c r="H45" s="16">
@@ -2558,7 +2584,7 @@
       <c r="S45" s="1"/>
       <c r="T45" s="17"/>
     </row>
-    <row r="46" spans="1:20" ht="45" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:20" ht="43.5">
       <c r="A46" s="16"/>
       <c r="G46" s="17"/>
       <c r="H46" s="16">
@@ -2583,7 +2609,7 @@
       <c r="S46" s="1"/>
       <c r="T46" s="17"/>
     </row>
-    <row r="47" spans="1:20" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:20" ht="44" thickBot="1">
       <c r="H47" s="16">
         <v>16</v>
       </c>
@@ -2606,7 +2632,7 @@
       <c r="S47" s="1"/>
       <c r="T47" s="17"/>
     </row>
-    <row r="48" spans="1:20" ht="30" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:20" ht="29">
       <c r="A48" s="28">
         <v>1</v>
       </c>
@@ -2658,11 +2684,11 @@
         <v>1</v>
       </c>
     </row>
-    <row r="49" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:20">
       <c r="A49" s="16">
         <v>2</v>
       </c>
-      <c r="B49" s="40">
+      <c r="B49" s="39">
         <v>2</v>
       </c>
       <c r="C49">
@@ -2692,7 +2718,7 @@
       <c r="S49" s="1"/>
       <c r="T49" s="17"/>
     </row>
-    <row r="50" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:20" ht="15" thickBot="1">
       <c r="A50" s="3">
         <v>3</v>
       </c>
@@ -2726,18 +2752,20 @@
       <c r="S50" s="1"/>
       <c r="T50" s="17"/>
     </row>
-    <row r="51" spans="1:20" ht="30" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:20" ht="29">
       <c r="A51" s="16">
         <v>1</v>
       </c>
-      <c r="B51" s="33"/>
+      <c r="B51" s="54">
+        <v>3</v>
+      </c>
       <c r="C51">
         <v>1</v>
       </c>
       <c r="D51" t="s">
         <v>56</v>
       </c>
-      <c r="E51" s="39" t="s">
+      <c r="E51" s="38" t="s">
         <v>90</v>
       </c>
       <c r="F51" t="s">
@@ -2760,11 +2788,13 @@
       <c r="S51" s="1"/>
       <c r="T51" s="17"/>
     </row>
-    <row r="52" spans="1:20" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:20" ht="29.5" thickBot="1">
       <c r="A52" s="3">
         <v>2</v>
       </c>
-      <c r="B52" s="35"/>
+      <c r="B52" s="55">
+        <v>3</v>
+      </c>
       <c r="C52" s="4">
         <v>2</v>
       </c>
@@ -2794,7 +2824,7 @@
       <c r="S52" s="1"/>
       <c r="T52" s="17"/>
     </row>
-    <row r="53" spans="1:20" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:20" ht="29.5" thickBot="1">
       <c r="A53" s="16"/>
       <c r="G53" s="17"/>
       <c r="H53" s="16">
@@ -2819,7 +2849,7 @@
       <c r="S53" s="1"/>
       <c r="T53" s="17"/>
     </row>
-    <row r="54" spans="1:20" ht="45" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:20" ht="43.5">
       <c r="A54" s="28">
         <v>1</v>
       </c>
@@ -2871,11 +2901,11 @@
         <v>1</v>
       </c>
     </row>
-    <row r="55" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:20">
       <c r="A55" s="16">
         <v>2</v>
       </c>
-      <c r="B55" s="40">
+      <c r="B55" s="39">
         <v>2</v>
       </c>
       <c r="C55">
@@ -2905,7 +2935,7 @@
       <c r="S55" s="1"/>
       <c r="T55" s="17"/>
     </row>
-    <row r="56" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:20" ht="15" thickBot="1">
       <c r="A56" s="3">
         <v>3</v>
       </c>
@@ -2939,18 +2969,20 @@
       <c r="S56" s="1"/>
       <c r="T56" s="17"/>
     </row>
-    <row r="57" spans="1:20" ht="30" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:20" ht="29">
       <c r="A57" s="16">
         <v>1</v>
       </c>
-      <c r="B57" s="33"/>
+      <c r="B57" s="54">
+        <v>3</v>
+      </c>
       <c r="C57">
         <v>1</v>
       </c>
       <c r="D57" t="s">
         <v>56</v>
       </c>
-      <c r="E57" s="39" t="s">
+      <c r="E57" s="38" t="s">
         <v>90</v>
       </c>
       <c r="F57" t="s">
@@ -2973,11 +3005,13 @@
       <c r="S57" s="1"/>
       <c r="T57" s="17"/>
     </row>
-    <row r="58" spans="1:20" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:20" ht="29.5" thickBot="1">
       <c r="A58" s="3">
         <v>2</v>
       </c>
-      <c r="B58" s="35"/>
+      <c r="B58" s="55">
+        <v>3</v>
+      </c>
       <c r="C58" s="4">
         <v>2</v>
       </c>
@@ -3007,7 +3041,7 @@
       <c r="S58" s="1"/>
       <c r="T58" s="17"/>
     </row>
-    <row r="59" spans="1:20" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:20" ht="44" thickBot="1">
       <c r="A59" s="16"/>
       <c r="G59" s="17"/>
       <c r="H59" s="16">
@@ -3032,7 +3066,7 @@
       <c r="S59" s="1"/>
       <c r="T59" s="17"/>
     </row>
-    <row r="60" spans="1:20" ht="45" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:20" ht="43.5">
       <c r="A60" s="28">
         <v>1</v>
       </c>
@@ -3084,11 +3118,11 @@
         <v>1</v>
       </c>
     </row>
-    <row r="61" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:20">
       <c r="A61" s="16">
         <v>2</v>
       </c>
-      <c r="B61" s="40">
+      <c r="B61" s="39">
         <v>2</v>
       </c>
       <c r="C61">
@@ -3118,7 +3152,7 @@
       <c r="S61" s="1"/>
       <c r="T61" s="17"/>
     </row>
-    <row r="62" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:20" ht="15" thickBot="1">
       <c r="A62" s="3">
         <v>3</v>
       </c>
@@ -3152,18 +3186,20 @@
       <c r="S62" s="1"/>
       <c r="T62" s="17"/>
     </row>
-    <row r="63" spans="1:20" ht="30" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:20" ht="29">
       <c r="A63" s="16">
         <v>1</v>
       </c>
-      <c r="B63" s="33"/>
+      <c r="B63" s="54">
+        <v>3</v>
+      </c>
       <c r="C63">
         <v>1</v>
       </c>
       <c r="D63" t="s">
         <v>56</v>
       </c>
-      <c r="E63" s="39" t="s">
+      <c r="E63" s="38" t="s">
         <v>90</v>
       </c>
       <c r="F63" t="s">
@@ -3186,11 +3222,13 @@
       <c r="S63" s="1"/>
       <c r="T63" s="17"/>
     </row>
-    <row r="64" spans="1:20" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:20" ht="29.5" thickBot="1">
       <c r="A64" s="3">
         <v>2</v>
       </c>
-      <c r="B64" s="35"/>
+      <c r="B64" s="55">
+        <v>3</v>
+      </c>
       <c r="C64" s="4">
         <v>2</v>
       </c>
@@ -3220,10 +3258,10 @@
       <c r="S64" s="1"/>
       <c r="T64" s="17"/>
     </row>
-    <row r="65" spans="1:20" ht="45" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:20" ht="43.5">
       <c r="A65" s="16"/>
-      <c r="B65" s="40"/>
-      <c r="E65" s="39"/>
+      <c r="B65" s="39"/>
+      <c r="E65" s="38"/>
       <c r="G65" s="17"/>
       <c r="H65" s="16">
         <v>20</v>
@@ -3247,7 +3285,7 @@
       <c r="S65" s="1"/>
       <c r="T65" s="17"/>
     </row>
-    <row r="66" spans="1:20" ht="75.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:20" ht="73" thickBot="1">
       <c r="A66" s="3"/>
       <c r="B66" s="4"/>
       <c r="C66" s="4"/>
